--- a/code.xlsx
+++ b/code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC5B693-AC80-4435-AD30-40C8D80B509E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6C32F-316C-458A-9CD4-05120BC2C28A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="94">
   <si>
     <t>GradientBorderCards</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>PixelButtonHoverEffects</t>
+  </si>
+  <si>
+    <t>3DRotation2021</t>
+  </si>
+  <si>
+    <t>CSSCardDesign</t>
   </si>
 </sst>
 </file>
@@ -681,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I79"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -796,7 +802,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -814,21 +820,21 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G68" si="0">_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ActionMenuDraggable/index.html" target="_blank"&gt;ActionMenuDraggable&lt;/a&gt;
+        <f>_xlfn.CONCAT($B3,$A3,$C3,$A3,$D3)</f>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/3DRotation2021/index.html" target="_blank"&gt;3DRotation2021&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H68" si="1">_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
-        <v xml:space="preserve">ActionMenuDraggable"
-            width="460"
-            height="315"
-            src="src/ActionMenuDraggable/index.html"
+        <f>_xlfn.CONCAT($A3,$E3,$A3,$F3)</f>
+        <v xml:space="preserve">3DRotation2021"
+            width="460"
+            height="315"
+            src="src/3DRotation2021/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -838,17 +844,17 @@
       </v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ref="I3:I68" si="2">_xlfn.CONCAT($G3,$H3)</f>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ActionMenuDraggable/index.html" target="_blank"&gt;ActionMenuDraggable&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ActionMenuDraggable"
-            width="460"
-            height="315"
-            src="src/ActionMenuDraggable/index.html"
+        <f>_xlfn.CONCAT($G3,$H3)</f>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/3DRotation2021/index.html" target="_blank"&gt;3DRotation2021&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="3DRotation2021"
+            width="460"
+            height="315"
+            src="src/3DRotation2021/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -860,7 +866,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -878,21 +884,21 @@
         <v>13</v>
       </c>
       <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedCubes/index.html" target="_blank"&gt;AnimatedCubes&lt;/a&gt;
+        <f t="shared" ref="G4:G70" si="0">_xlfn.CONCAT($B4,$A4,$C4,$A4,$D4)</f>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ActionMenuDraggable/index.html" target="_blank"&gt;ActionMenuDraggable&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimatedCubes"
-            width="460"
-            height="315"
-            src="src/AnimatedCubes/index.html"
+        <f t="shared" ref="H4:H70" si="1">_xlfn.CONCAT($A4,$E4,$A4,$F4)</f>
+        <v xml:space="preserve">ActionMenuDraggable"
+            width="460"
+            height="315"
+            src="src/ActionMenuDraggable/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -902,17 +908,17 @@
       </v>
       </c>
       <c r="I4" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedCubes/index.html" target="_blank"&gt;AnimatedCubes&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimatedCubes"
-            width="460"
-            height="315"
-            src="src/AnimatedCubes/index.html"
+        <f t="shared" ref="I4:I70" si="2">_xlfn.CONCAT($G4,$H4)</f>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ActionMenuDraggable/index.html" target="_blank"&gt;ActionMenuDraggable&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ActionMenuDraggable"
+            width="460"
+            height="315"
+            src="src/ActionMenuDraggable/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -924,7 +930,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -945,7 +951,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedGradientBorderButton/index.html" target="_blank"&gt;AnimatedGradientBorderButton&lt;/a&gt;
+        &lt;a href="src/AnimatedCubes/index.html" target="_blank"&gt;AnimatedCubes&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -953,10 +959,10 @@
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimatedGradientBorderButton"
-            width="460"
-            height="315"
-            src="src/AnimatedGradientBorderButton/index.html"
+        <v xml:space="preserve">AnimatedCubes"
+            width="460"
+            height="315"
+            src="src/AnimatedCubes/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -969,14 +975,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimatedGradientBorderButton/index.html" target="_blank"&gt;AnimatedGradientBorderButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimatedGradientBorderButton"
-            width="460"
-            height="315"
-            src="src/AnimatedGradientBorderButton/index.html"
+        &lt;a href="src/AnimatedCubes/index.html" target="_blank"&gt;AnimatedCubes&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimatedCubes"
+            width="460"
+            height="315"
+            src="src/AnimatedCubes/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -988,7 +994,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1009,7 +1015,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSTimelineAnimation/index.html" target="_blank"&gt;AnimeJSTimelineAnimation&lt;/a&gt;
+        &lt;a href="src/AnimatedGradientBorderButton/index.html" target="_blank"&gt;AnimatedGradientBorderButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1017,10 +1023,10 @@
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">AnimeJSTimelineAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSTimelineAnimation/index.html"
+        <v xml:space="preserve">AnimatedGradientBorderButton"
+            width="460"
+            height="315"
+            src="src/AnimatedGradientBorderButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1033,14 +1039,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/AnimeJSTimelineAnimation/index.html" target="_blank"&gt;AnimeJSTimelineAnimation&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="AnimeJSTimelineAnimation"
-            width="460"
-            height="315"
-            src="src/AnimeJSTimelineAnimation/index.html"
+        &lt;a href="src/AnimatedGradientBorderButton/index.html" target="_blank"&gt;AnimatedGradientBorderButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimatedGradientBorderButton"
+            width="460"
+            height="315"
+            src="src/AnimatedGradientBorderButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1052,7 +1058,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1073,7 +1079,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Battlegrounds/index.html" target="_blank"&gt;Battlegrounds&lt;/a&gt;
+        &lt;a href="src/AnimeJSTimelineAnimation/index.html" target="_blank"&gt;AnimeJSTimelineAnimation&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1081,10 +1087,10 @@
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Battlegrounds"
-            width="460"
-            height="315"
-            src="src/Battlegrounds/index.html"
+        <v xml:space="preserve">AnimeJSTimelineAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSTimelineAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1097,14 +1103,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Battlegrounds/index.html" target="_blank"&gt;Battlegrounds&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Battlegrounds"
-            width="460"
-            height="315"
-            src="src/Battlegrounds/index.html"
+        &lt;a href="src/AnimeJSTimelineAnimation/index.html" target="_blank"&gt;AnimeJSTimelineAnimation&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="AnimeJSTimelineAnimation"
+            width="460"
+            height="315"
+            src="src/AnimeJSTimelineAnimation/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1116,7 +1122,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1137,7 +1143,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ButtonGreenNeonLightBorder/index.html" target="_blank"&gt;ButtonGreenNeonLightBorder&lt;/a&gt;
+        &lt;a href="src/Battlegrounds/index.html" target="_blank"&gt;Battlegrounds&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1145,10 +1151,10 @@
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ButtonGreenNeonLightBorder"
-            width="460"
-            height="315"
-            src="src/ButtonGreenNeonLightBorder/index.html"
+        <v xml:space="preserve">Battlegrounds"
+            width="460"
+            height="315"
+            src="src/Battlegrounds/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1161,14 +1167,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ButtonGreenNeonLightBorder/index.html" target="_blank"&gt;ButtonGreenNeonLightBorder&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ButtonGreenNeonLightBorder"
-            width="460"
-            height="315"
-            src="src/ButtonGreenNeonLightBorder/index.html"
+        &lt;a href="src/Battlegrounds/index.html" target="_blank"&gt;Battlegrounds&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Battlegrounds"
+            width="460"
+            height="315"
+            src="src/Battlegrounds/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1180,7 +1186,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1201,7 +1207,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ButtonHoverEffectsCursour/index.html" target="_blank"&gt;ButtonHoverEffectsCursour&lt;/a&gt;
+        &lt;a href="src/ButtonGreenNeonLightBorder/index.html" target="_blank"&gt;ButtonGreenNeonLightBorder&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1209,10 +1215,10 @@
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ButtonHoverEffectsCursour"
-            width="460"
-            height="315"
-            src="src/ButtonHoverEffectsCursour/index.html"
+        <v xml:space="preserve">ButtonGreenNeonLightBorder"
+            width="460"
+            height="315"
+            src="src/ButtonGreenNeonLightBorder/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1225,14 +1231,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ButtonHoverEffectsCursour/index.html" target="_blank"&gt;ButtonHoverEffectsCursour&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ButtonHoverEffectsCursour"
-            width="460"
-            height="315"
-            src="src/ButtonHoverEffectsCursour/index.html"
+        &lt;a href="src/ButtonGreenNeonLightBorder/index.html" target="_blank"&gt;ButtonGreenNeonLightBorder&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ButtonGreenNeonLightBorder"
+            width="460"
+            height="315"
+            src="src/ButtonGreenNeonLightBorder/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1244,7 +1250,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1265,7 +1271,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CardsHoverEffects_user/index.html" target="_blank"&gt;CardsHoverEffects_user&lt;/a&gt;
+        &lt;a href="src/ButtonHoverEffectsCursour/index.html" target="_blank"&gt;ButtonHoverEffectsCursour&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1273,10 +1279,10 @@
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CardsHoverEffects_user"
-            width="460"
-            height="315"
-            src="src/CardsHoverEffects_user/index.html"
+        <v xml:space="preserve">ButtonHoverEffectsCursour"
+            width="460"
+            height="315"
+            src="src/ButtonHoverEffectsCursour/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1289,14 +1295,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CardsHoverEffects_user/index.html" target="_blank"&gt;CardsHoverEffects_user&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CardsHoverEffects_user"
-            width="460"
-            height="315"
-            src="src/CardsHoverEffects_user/index.html"
+        &lt;a href="src/ButtonHoverEffectsCursour/index.html" target="_blank"&gt;ButtonHoverEffectsCursour&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ButtonHoverEffectsCursour"
+            width="460"
+            height="315"
+            src="src/ButtonHoverEffectsCursour/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1308,7 +1314,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1329,7 +1335,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Card_ReadMore/index.html" target="_blank"&gt;Card_ReadMore&lt;/a&gt;
+        &lt;a href="src/CardsHoverEffects_user/index.html" target="_blank"&gt;CardsHoverEffects_user&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1337,10 +1343,10 @@
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Card_ReadMore"
-            width="460"
-            height="315"
-            src="src/Card_ReadMore/index.html"
+        <v xml:space="preserve">CardsHoverEffects_user"
+            width="460"
+            height="315"
+            src="src/CardsHoverEffects_user/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1353,14 +1359,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Card_ReadMore/index.html" target="_blank"&gt;Card_ReadMore&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Card_ReadMore"
-            width="460"
-            height="315"
-            src="src/Card_ReadMore/index.html"
+        &lt;a href="src/CardsHoverEffects_user/index.html" target="_blank"&gt;CardsHoverEffects_user&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CardsHoverEffects_user"
+            width="460"
+            height="315"
+            src="src/CardsHoverEffects_user/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1372,7 +1378,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1393,7 +1399,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html" target="_blank"&gt;ChangeBackgroundColourWithDropdownMenuJavascript&lt;/a&gt;
+        &lt;a href="src/Card_ReadMore/index.html" target="_blank"&gt;Card_ReadMore&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1401,10 +1407,10 @@
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ChangeBackgroundColourWithDropdownMenuJavascript"
-            width="460"
-            height="315"
-            src="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html"
+        <v xml:space="preserve">Card_ReadMore"
+            width="460"
+            height="315"
+            src="src/Card_ReadMore/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1417,14 +1423,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html" target="_blank"&gt;ChangeBackgroundColourWithDropdownMenuJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ChangeBackgroundColourWithDropdownMenuJavascript"
-            width="460"
-            height="315"
-            src="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html"
+        &lt;a href="src/Card_ReadMore/index.html" target="_blank"&gt;Card_ReadMore&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Card_ReadMore"
+            width="460"
+            height="315"
+            src="src/Card_ReadMore/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1436,7 +1442,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
@@ -1457,7 +1463,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ChangeFontSizeOnClick/index.html" target="_blank"&gt;ChangeFontSizeOnClick&lt;/a&gt;
+        &lt;a href="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html" target="_blank"&gt;ChangeBackgroundColourWithDropdownMenuJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1465,10 +1471,10 @@
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ChangeFontSizeOnClick"
-            width="460"
-            height="315"
-            src="src/ChangeFontSizeOnClick/index.html"
+        <v xml:space="preserve">ChangeBackgroundColourWithDropdownMenuJavascript"
+            width="460"
+            height="315"
+            src="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1481,14 +1487,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ChangeFontSizeOnClick/index.html" target="_blank"&gt;ChangeFontSizeOnClick&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ChangeFontSizeOnClick"
-            width="460"
-            height="315"
-            src="src/ChangeFontSizeOnClick/index.html"
+        &lt;a href="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html" target="_blank"&gt;ChangeBackgroundColourWithDropdownMenuJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ChangeBackgroundColourWithDropdownMenuJavascript"
+            width="460"
+            height="315"
+            src="src/ChangeBackgroundColourWithDropdownMenuJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1500,7 +1506,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -1521,7 +1527,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CirclePopOutImage/index.html" target="_blank"&gt;CirclePopOutImage&lt;/a&gt;
+        &lt;a href="src/ChangeFontSizeOnClick/index.html" target="_blank"&gt;ChangeFontSizeOnClick&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1529,10 +1535,10 @@
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CirclePopOutImage"
-            width="460"
-            height="315"
-            src="src/CirclePopOutImage/index.html"
+        <v xml:space="preserve">ChangeFontSizeOnClick"
+            width="460"
+            height="315"
+            src="src/ChangeFontSizeOnClick/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1545,14 +1551,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CirclePopOutImage/index.html" target="_blank"&gt;CirclePopOutImage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CirclePopOutImage"
-            width="460"
-            height="315"
-            src="src/CirclePopOutImage/index.html"
+        &lt;a href="src/ChangeFontSizeOnClick/index.html" target="_blank"&gt;ChangeFontSizeOnClick&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ChangeFontSizeOnClick"
+            width="460"
+            height="315"
+            src="src/ChangeFontSizeOnClick/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1564,7 +1570,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -1585,7 +1591,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactInfoBoxHoverEffects/index.html" target="_blank"&gt;ContactInfoBoxHoverEffects&lt;/a&gt;
+        &lt;a href="src/CirclePopOutImage/index.html" target="_blank"&gt;CirclePopOutImage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1593,10 +1599,10 @@
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ContactInfoBoxHoverEffects"
-            width="460"
-            height="315"
-            src="src/ContactInfoBoxHoverEffects/index.html"
+        <v xml:space="preserve">CirclePopOutImage"
+            width="460"
+            height="315"
+            src="src/CirclePopOutImage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1609,14 +1615,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ContactInfoBoxHoverEffects/index.html" target="_blank"&gt;ContactInfoBoxHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ContactInfoBoxHoverEffects"
-            width="460"
-            height="315"
-            src="src/ContactInfoBoxHoverEffects/index.html"
+        &lt;a href="src/CirclePopOutImage/index.html" target="_blank"&gt;CirclePopOutImage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CirclePopOutImage"
+            width="460"
+            height="315"
+            src="src/CirclePopOutImage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1628,7 +1634,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -1649,7 +1655,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CrackPortrait/index.html" target="_blank"&gt;CrackPortrait&lt;/a&gt;
+        &lt;a href="src/ContactInfoBoxHoverEffects/index.html" target="_blank"&gt;ContactInfoBoxHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1657,10 +1663,10 @@
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CrackPortrait"
-            width="460"
-            height="315"
-            src="src/CrackPortrait/index.html"
+        <v xml:space="preserve">ContactInfoBoxHoverEffects"
+            width="460"
+            height="315"
+            src="src/ContactInfoBoxHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1673,14 +1679,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CrackPortrait/index.html" target="_blank"&gt;CrackPortrait&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CrackPortrait"
-            width="460"
-            height="315"
-            src="src/CrackPortrait/index.html"
+        &lt;a href="src/ContactInfoBoxHoverEffects/index.html" target="_blank"&gt;ContactInfoBoxHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ContactInfoBoxHoverEffects"
+            width="460"
+            height="315"
+            src="src/ContactInfoBoxHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1692,7 +1698,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -1713,7 +1719,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeButtonHoverEffects01/index.html" target="_blank"&gt;CreativeButtonHoverEffects01&lt;/a&gt;
+        &lt;a href="src/CrackPortrait/index.html" target="_blank"&gt;CrackPortrait&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1721,10 +1727,10 @@
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeButtonHoverEffects01"
-            width="460"
-            height="315"
-            src="src/CreativeButtonHoverEffects01/index.html"
+        <v xml:space="preserve">CrackPortrait"
+            width="460"
+            height="315"
+            src="src/CrackPortrait/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1737,14 +1743,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeButtonHoverEffects01/index.html" target="_blank"&gt;CreativeButtonHoverEffects01&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeButtonHoverEffects01"
-            width="460"
-            height="315"
-            src="src/CreativeButtonHoverEffects01/index.html"
+        &lt;a href="src/CrackPortrait/index.html" target="_blank"&gt;CrackPortrait&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CrackPortrait"
+            width="460"
+            height="315"
+            src="src/CrackPortrait/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1756,7 +1762,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
@@ -1777,7 +1783,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeContactFormGlassmorphism/index.html" target="_blank"&gt;CreativeContactFormGlassmorphism&lt;/a&gt;
+        &lt;a href="src/CreativeButtonHoverEffects01/index.html" target="_blank"&gt;CreativeButtonHoverEffects01&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1785,10 +1791,10 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeContactFormGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CreativeContactFormGlassmorphism/index.html"
+        <v xml:space="preserve">CreativeButtonHoverEffects01"
+            width="460"
+            height="315"
+            src="src/CreativeButtonHoverEffects01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1801,14 +1807,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeContactFormGlassmorphism/index.html" target="_blank"&gt;CreativeContactFormGlassmorphism&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeContactFormGlassmorphism"
-            width="460"
-            height="315"
-            src="src/CreativeContactFormGlassmorphism/index.html"
+        &lt;a href="src/CreativeButtonHoverEffects01/index.html" target="_blank"&gt;CreativeButtonHoverEffects01&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeButtonHoverEffects01"
+            width="460"
+            height="315"
+            src="src/CreativeButtonHoverEffects01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1820,7 +1826,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -1841,7 +1847,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeMenuItemHoverEffects02/index.html" target="_blank"&gt;CreativeMenuItemHoverEffects02&lt;/a&gt;
+        &lt;a href="src/CreativeContactFormGlassmorphism/index.html" target="_blank"&gt;CreativeContactFormGlassmorphism&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1849,10 +1855,10 @@
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CreativeMenuItemHoverEffects02"
-            width="460"
-            height="315"
-            src="src/CreativeMenuItemHoverEffects02/index.html"
+        <v xml:space="preserve">CreativeContactFormGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CreativeContactFormGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1865,14 +1871,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CreativeMenuItemHoverEffects02/index.html" target="_blank"&gt;CreativeMenuItemHoverEffects02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CreativeMenuItemHoverEffects02"
-            width="460"
-            height="315"
-            src="src/CreativeMenuItemHoverEffects02/index.html"
+        &lt;a href="src/CreativeContactFormGlassmorphism/index.html" target="_blank"&gt;CreativeContactFormGlassmorphism&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeContactFormGlassmorphism"
+            width="460"
+            height="315"
+            src="src/CreativeContactFormGlassmorphism/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1884,7 +1890,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
@@ -1905,7 +1911,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSS360DegreeView/index.html" target="_blank"&gt;CSS360DegreeView&lt;/a&gt;
+        &lt;a href="src/CreativeMenuItemHoverEffects02/index.html" target="_blank"&gt;CreativeMenuItemHoverEffects02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1913,10 +1919,10 @@
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSS360DegreeView"
-            width="460"
-            height="315"
-            src="src/CSS360DegreeView/index.html"
+        <v xml:space="preserve">CreativeMenuItemHoverEffects02"
+            width="460"
+            height="315"
+            src="src/CreativeMenuItemHoverEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1929,14 +1935,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSS360DegreeView/index.html" target="_blank"&gt;CSS360DegreeView&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSS360DegreeView"
-            width="460"
-            height="315"
-            src="src/CSS360DegreeView/index.html"
+        &lt;a href="src/CreativeMenuItemHoverEffects02/index.html" target="_blank"&gt;CreativeMenuItemHoverEffects02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CreativeMenuItemHoverEffects02"
+            width="460"
+            height="315"
+            src="src/CreativeMenuItemHoverEffects02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1948,7 +1954,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>6</v>
@@ -1969,7 +1975,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSS3DLoader/index.html" target="_blank"&gt;CSS3DLoader&lt;/a&gt;
+        &lt;a href="src/CSS360DegreeView/index.html" target="_blank"&gt;CSS360DegreeView&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -1977,10 +1983,10 @@
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSS3DLoader"
-            width="460"
-            height="315"
-            src="src/CSS3DLoader/index.html"
+        <v xml:space="preserve">CSS360DegreeView"
+            width="460"
+            height="315"
+            src="src/CSS360DegreeView/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -1993,14 +1999,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSS3DLoader/index.html" target="_blank"&gt;CSS3DLoader&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSS3DLoader"
-            width="460"
-            height="315"
-            src="src/CSS3DLoader/index.html"
+        &lt;a href="src/CSS360DegreeView/index.html" target="_blank"&gt;CSS360DegreeView&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSS360DegreeView"
+            width="460"
+            height="315"
+            src="src/CSS360DegreeView/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2012,7 +2018,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -2033,7 +2039,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAbstractBackground/index.html" target="_blank"&gt;CSSAbstractBackground&lt;/a&gt;
+        &lt;a href="src/CSS3DLoader/index.html" target="_blank"&gt;CSS3DLoader&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2041,10 +2047,10 @@
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSAbstractBackground"
-            width="460"
-            height="315"
-            src="src/CSSAbstractBackground/index.html"
+        <v xml:space="preserve">CSS3DLoader"
+            width="460"
+            height="315"
+            src="src/CSS3DLoader/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2057,14 +2063,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAbstractBackground/index.html" target="_blank"&gt;CSSAbstractBackground&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSAbstractBackground"
-            width="460"
-            height="315"
-            src="src/CSSAbstractBackground/index.html"
+        &lt;a href="src/CSS3DLoader/index.html" target="_blank"&gt;CSS3DLoader&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSS3DLoader"
+            width="460"
+            height="315"
+            src="src/CSS3DLoader/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2076,7 +2082,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
@@ -2097,7 +2103,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimatedBackground/index.html" target="_blank"&gt;CSSAnimatedBackground&lt;/a&gt;
+        &lt;a href="src/CSSAbstractBackground/index.html" target="_blank"&gt;CSSAbstractBackground&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2105,10 +2111,10 @@
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSAnimatedBackground"
-            width="460"
-            height="315"
-            src="src/CSSAnimatedBackground/index.html"
+        <v xml:space="preserve">CSSAbstractBackground"
+            width="460"
+            height="315"
+            src="src/CSSAbstractBackground/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2121,14 +2127,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSAnimatedBackground/index.html" target="_blank"&gt;CSSAnimatedBackground&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSAnimatedBackground"
-            width="460"
-            height="315"
-            src="src/CSSAnimatedBackground/index.html"
+        &lt;a href="src/CSSAbstractBackground/index.html" target="_blank"&gt;CSSAbstractBackground&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSAbstractBackground"
+            width="460"
+            height="315"
+            src="src/CSSAbstractBackground/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2140,7 +2146,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
@@ -2161,7 +2167,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSOnlyImageComparison/index.html" target="_blank"&gt;CSSOnlyImageComparison&lt;/a&gt;
+        &lt;a href="src/CSSAnimatedBackground/index.html" target="_blank"&gt;CSSAnimatedBackground&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2169,10 +2175,10 @@
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CSSOnlyImageComparison"
-            width="460"
-            height="315"
-            src="src/CSSOnlyImageComparison/index.html"
+        <v xml:space="preserve">CSSAnimatedBackground"
+            width="460"
+            height="315"
+            src="src/CSSAnimatedBackground/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2185,14 +2191,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/CSSOnlyImageComparison/index.html" target="_blank"&gt;CSSOnlyImageComparison&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="CSSOnlyImageComparison"
-            width="460"
-            height="315"
-            src="src/CSSOnlyImageComparison/index.html"
+        &lt;a href="src/CSSAnimatedBackground/index.html" target="_blank"&gt;CSSAnimatedBackground&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSAnimatedBackground"
+            width="460"
+            height="315"
+            src="src/CSSAnimatedBackground/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2204,7 +2210,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
@@ -2225,7 +2231,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkModeWebsite/index.html" target="_blank"&gt;DarkModeWebsite&lt;/a&gt;
+        &lt;a href="src/CSSCardDesign/index.html" target="_blank"&gt;CSSCardDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2233,10 +2239,10 @@
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">DarkModeWebsite"
-            width="460"
-            height="315"
-            src="src/DarkModeWebsite/index.html"
+        <v xml:space="preserve">CSSCardDesign"
+            width="460"
+            height="315"
+            src="src/CSSCardDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2249,14 +2255,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/DarkModeWebsite/index.html" target="_blank"&gt;DarkModeWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="DarkModeWebsite"
-            width="460"
-            height="315"
-            src="src/DarkModeWebsite/index.html"
+        &lt;a href="src/CSSCardDesign/index.html" target="_blank"&gt;CSSCardDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSCardDesign"
+            width="460"
+            height="315"
+            src="src/CSSCardDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2268,7 +2274,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
@@ -2289,7 +2295,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/eCommerceProductCards/index.html" target="_blank"&gt;eCommerceProductCards&lt;/a&gt;
+        &lt;a href="src/CSSOnlyImageComparison/index.html" target="_blank"&gt;CSSOnlyImageComparison&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2297,10 +2303,10 @@
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">eCommerceProductCards"
-            width="460"
-            height="315"
-            src="src/eCommerceProductCards/index.html"
+        <v xml:space="preserve">CSSOnlyImageComparison"
+            width="460"
+            height="315"
+            src="src/CSSOnlyImageComparison/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2313,14 +2319,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/eCommerceProductCards/index.html" target="_blank"&gt;eCommerceProductCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="eCommerceProductCards"
-            width="460"
-            height="315"
-            src="src/eCommerceProductCards/index.html"
+        &lt;a href="src/CSSOnlyImageComparison/index.html" target="_blank"&gt;CSSOnlyImageComparison&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="CSSOnlyImageComparison"
+            width="460"
+            height="315"
+            src="src/CSSOnlyImageComparison/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2332,7 +2338,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -2353,7 +2359,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Eid2021/index.html" target="_blank"&gt;Eid2021&lt;/a&gt;
+        &lt;a href="src/DarkModeWebsite/index.html" target="_blank"&gt;DarkModeWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2361,10 +2367,10 @@
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Eid2021"
-            width="460"
-            height="315"
-            src="src/Eid2021/index.html"
+        <v xml:space="preserve">DarkModeWebsite"
+            width="460"
+            height="315"
+            src="src/DarkModeWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2377,14 +2383,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Eid2021/index.html" target="_blank"&gt;Eid2021&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Eid2021"
-            width="460"
-            height="315"
-            src="src/Eid2021/index.html"
+        &lt;a href="src/DarkModeWebsite/index.html" target="_blank"&gt;DarkModeWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="DarkModeWebsite"
+            width="460"
+            height="315"
+            src="src/DarkModeWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2396,7 +2402,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>6</v>
@@ -2417,7 +2423,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/EndlessRoadAndCube/index.html" target="_blank"&gt;EndlessRoadAndCube&lt;/a&gt;
+        &lt;a href="src/eCommerceProductCards/index.html" target="_blank"&gt;eCommerceProductCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2425,10 +2431,10 @@
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">EndlessRoadAndCube"
-            width="460"
-            height="315"
-            src="src/EndlessRoadAndCube/index.html"
+        <v xml:space="preserve">eCommerceProductCards"
+            width="460"
+            height="315"
+            src="src/eCommerceProductCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2441,14 +2447,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/EndlessRoadAndCube/index.html" target="_blank"&gt;EndlessRoadAndCube&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="EndlessRoadAndCube"
-            width="460"
-            height="315"
-            src="src/EndlessRoadAndCube/index.html"
+        &lt;a href="src/eCommerceProductCards/index.html" target="_blank"&gt;eCommerceProductCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="eCommerceProductCards"
+            width="460"
+            height="315"
+            src="src/eCommerceProductCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2460,7 +2466,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -2481,7 +2487,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Focus/index.html" target="_blank"&gt;Focus&lt;/a&gt;
+        &lt;a href="src/Eid2021/index.html" target="_blank"&gt;Eid2021&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2489,10 +2495,10 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Focus"
-            width="460"
-            height="315"
-            src="src/Focus/index.html"
+        <v xml:space="preserve">Eid2021"
+            width="460"
+            height="315"
+            src="src/Eid2021/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2505,14 +2511,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Focus/index.html" target="_blank"&gt;Focus&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Focus"
-            width="460"
-            height="315"
-            src="src/Focus/index.html"
+        &lt;a href="src/Eid2021/index.html" target="_blank"&gt;Eid2021&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Eid2021"
+            width="460"
+            height="315"
+            src="src/Eid2021/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2524,7 +2530,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -2545,7 +2551,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FoodCards2/index.html" target="_blank"&gt;FoodCards2&lt;/a&gt;
+        &lt;a href="src/EndlessRoadAndCube/index.html" target="_blank"&gt;EndlessRoadAndCube&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2553,10 +2559,10 @@
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FoodCards2"
-            width="460"
-            height="315"
-            src="src/FoodCards2/index.html"
+        <v xml:space="preserve">EndlessRoadAndCube"
+            width="460"
+            height="315"
+            src="src/EndlessRoadAndCube/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2569,14 +2575,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FoodCards2/index.html" target="_blank"&gt;FoodCards2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FoodCards2"
-            width="460"
-            height="315"
-            src="src/FoodCards2/index.html"
+        &lt;a href="src/EndlessRoadAndCube/index.html" target="_blank"&gt;EndlessRoadAndCube&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="EndlessRoadAndCube"
+            width="460"
+            height="315"
+            src="src/EndlessRoadAndCube/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2588,7 +2594,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
@@ -2609,7 +2615,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Fruits/index.html" target="_blank"&gt;Fruits&lt;/a&gt;
+        &lt;a href="src/Focus/index.html" target="_blank"&gt;Focus&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2617,10 +2623,10 @@
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Fruits"
-            width="460"
-            height="315"
-            src="src/Fruits/index.html"
+        <v xml:space="preserve">Focus"
+            width="460"
+            height="315"
+            src="src/Focus/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2633,14 +2639,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Fruits/index.html" target="_blank"&gt;Fruits&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Fruits"
-            width="460"
-            height="315"
-            src="src/Fruits/index.html"
+        &lt;a href="src/Focus/index.html" target="_blank"&gt;Focus&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Focus"
+            width="460"
+            height="315"
+            src="src/Focus/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2652,7 +2658,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>6</v>
@@ -2673,7 +2679,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuHoverEffects/index.html" target="_blank"&gt;FullscreenMenuHoverEffects&lt;/a&gt;
+        &lt;a href="src/FoodCards2/index.html" target="_blank"&gt;FoodCards2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2681,10 +2687,10 @@
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">FullscreenMenuHoverEffects"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuHoverEffects/index.html"
+        <v xml:space="preserve">FoodCards2"
+            width="460"
+            height="315"
+            src="src/FoodCards2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2697,14 +2703,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/FullscreenMenuHoverEffects/index.html" target="_blank"&gt;FullscreenMenuHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="FullscreenMenuHoverEffects"
-            width="460"
-            height="315"
-            src="src/FullscreenMenuHoverEffects/index.html"
+        &lt;a href="src/FoodCards2/index.html" target="_blank"&gt;FoodCards2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FoodCards2"
+            width="460"
+            height="315"
+            src="src/FoodCards2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2716,7 +2722,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
@@ -2737,7 +2743,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismBatteryLevel/index.html" target="_blank"&gt;GlassmorphismBatteryLevel&lt;/a&gt;
+        &lt;a href="src/Fruits/index.html" target="_blank"&gt;Fruits&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2745,10 +2751,10 @@
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismBatteryLevel"
-            width="460"
-            height="315"
-            src="src/GlassmorphismBatteryLevel/index.html"
+        <v xml:space="preserve">Fruits"
+            width="460"
+            height="315"
+            src="src/Fruits/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2761,14 +2767,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismBatteryLevel/index.html" target="_blank"&gt;GlassmorphismBatteryLevel&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismBatteryLevel"
-            width="460"
-            height="315"
-            src="src/GlassmorphismBatteryLevel/index.html"
+        &lt;a href="src/Fruits/index.html" target="_blank"&gt;Fruits&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Fruits"
+            width="460"
+            height="315"
+            src="src/Fruits/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2780,7 +2786,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
@@ -2801,7 +2807,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCalendar/index.html" target="_blank"&gt;GlassmorphismCalendar&lt;/a&gt;
+        &lt;a href="src/FullscreenMenuHoverEffects/index.html" target="_blank"&gt;FullscreenMenuHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2809,10 +2815,10 @@
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismCalendar"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCalendar/index.html"
+        <v xml:space="preserve">FullscreenMenuHoverEffects"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2825,14 +2831,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismCalendar/index.html" target="_blank"&gt;GlassmorphismCalendar&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismCalendar"
-            width="460"
-            height="315"
-            src="src/GlassmorphismCalendar/index.html"
+        &lt;a href="src/FullscreenMenuHoverEffects/index.html" target="_blank"&gt;FullscreenMenuHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="FullscreenMenuHoverEffects"
+            width="460"
+            height="315"
+            src="src/FullscreenMenuHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2844,7 +2850,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>6</v>
@@ -2865,7 +2871,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismMenuIndicator/index.html" target="_blank"&gt;GlassmorphismMenuIndicator&lt;/a&gt;
+        &lt;a href="src/GlassmorphismBatteryLevel/index.html" target="_blank"&gt;GlassmorphismBatteryLevel&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2873,10 +2879,10 @@
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismMenuIndicator"
-            width="460"
-            height="315"
-            src="src/GlassmorphismMenuIndicator/index.html"
+        <v xml:space="preserve">GlassmorphismBatteryLevel"
+            width="460"
+            height="315"
+            src="src/GlassmorphismBatteryLevel/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2889,14 +2895,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismMenuIndicator/index.html" target="_blank"&gt;GlassmorphismMenuIndicator&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismMenuIndicator"
-            width="460"
-            height="315"
-            src="src/GlassmorphismMenuIndicator/index.html"
+        &lt;a href="src/GlassmorphismBatteryLevel/index.html" target="_blank"&gt;GlassmorphismBatteryLevel&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismBatteryLevel"
+            width="460"
+            height="315"
+            src="src/GlassmorphismBatteryLevel/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2908,7 +2914,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -2929,7 +2935,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductSlider/index.html" target="_blank"&gt;GlassmorphismProductSlider&lt;/a&gt;
+        &lt;a href="src/GlassmorphismCalendar/index.html" target="_blank"&gt;GlassmorphismCalendar&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -2937,10 +2943,10 @@
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlassmorphismProductSlider"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductSlider/index.html"
+        <v xml:space="preserve">GlassmorphismCalendar"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCalendar/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2953,14 +2959,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlassmorphismProductSlider/index.html" target="_blank"&gt;GlassmorphismProductSlider&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlassmorphismProductSlider"
-            width="460"
-            height="315"
-            src="src/GlassmorphismProductSlider/index.html"
+        &lt;a href="src/GlassmorphismCalendar/index.html" target="_blank"&gt;GlassmorphismCalendar&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismCalendar"
+            width="460"
+            height="315"
+            src="src/GlassmorphismCalendar/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -2972,7 +2978,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -2993,7 +2999,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingBorder3Remake/index.html" target="_blank"&gt;GlowingBorder3Remake&lt;/a&gt;
+        &lt;a href="src/GlassmorphismMenuIndicator/index.html" target="_blank"&gt;GlassmorphismMenuIndicator&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3001,10 +3007,10 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlowingBorder3Remake"
-            width="460"
-            height="315"
-            src="src/GlowingBorder3Remake/index.html"
+        <v xml:space="preserve">GlassmorphismMenuIndicator"
+            width="460"
+            height="315"
+            src="src/GlassmorphismMenuIndicator/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3017,14 +3023,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingBorder3Remake/index.html" target="_blank"&gt;GlowingBorder3Remake&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlowingBorder3Remake"
-            width="460"
-            height="315"
-            src="src/GlowingBorder3Remake/index.html"
+        &lt;a href="src/GlassmorphismMenuIndicator/index.html" target="_blank"&gt;GlassmorphismMenuIndicator&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismMenuIndicator"
+            width="460"
+            height="315"
+            src="src/GlassmorphismMenuIndicator/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3036,7 +3042,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -3057,7 +3063,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingHeartDotAnimationEffects/index.html" target="_blank"&gt;GlowingHeartDotAnimationEffects&lt;/a&gt;
+        &lt;a href="src/GlassmorphismProductSlider/index.html" target="_blank"&gt;GlassmorphismProductSlider&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3065,10 +3071,10 @@
       </c>
       <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GlowingHeartDotAnimationEffects"
-            width="460"
-            height="315"
-            src="src/GlowingHeartDotAnimationEffects/index.html"
+        <v xml:space="preserve">GlassmorphismProductSlider"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3081,14 +3087,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GlowingHeartDotAnimationEffects/index.html" target="_blank"&gt;GlowingHeartDotAnimationEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GlowingHeartDotAnimationEffects"
-            width="460"
-            height="315"
-            src="src/GlowingHeartDotAnimationEffects/index.html"
+        &lt;a href="src/GlassmorphismProductSlider/index.html" target="_blank"&gt;GlassmorphismProductSlider&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlassmorphismProductSlider"
+            width="460"
+            height="315"
+            src="src/GlassmorphismProductSlider/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3100,7 +3106,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -3121,7 +3127,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GoogleSearchWorkingWebsite/index.html" target="_blank"&gt;GoogleSearchWorkingWebsite&lt;/a&gt;
+        &lt;a href="src/GlowingBorder3Remake/index.html" target="_blank"&gt;GlowingBorder3Remake&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3129,10 +3135,10 @@
       </c>
       <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GoogleSearchWorkingWebsite"
-            width="460"
-            height="315"
-            src="src/GoogleSearchWorkingWebsite/index.html"
+        <v xml:space="preserve">GlowingBorder3Remake"
+            width="460"
+            height="315"
+            src="src/GlowingBorder3Remake/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3145,14 +3151,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GoogleSearchWorkingWebsite/index.html" target="_blank"&gt;GoogleSearchWorkingWebsite&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GoogleSearchWorkingWebsite"
-            width="460"
-            height="315"
-            src="src/GoogleSearchWorkingWebsite/index.html"
+        &lt;a href="src/GlowingBorder3Remake/index.html" target="_blank"&gt;GlowingBorder3Remake&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlowingBorder3Remake"
+            width="460"
+            height="315"
+            src="src/GlowingBorder3Remake/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3164,7 +3170,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -3185,7 +3191,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;a href="src/GlowingHeartDotAnimationEffects/index.html" target="_blank"&gt;GlowingHeartDotAnimationEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3193,10 +3199,10 @@
       </c>
       <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
+        <v xml:space="preserve">GlowingHeartDotAnimationEffects"
+            width="460"
+            height="315"
+            src="src/GlowingHeartDotAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3209,14 +3215,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="GradientBorderCards"
-            width="460"
-            height="315"
-            src="src/GradientBorderCards/index.html"
+        &lt;a href="src/GlowingHeartDotAnimationEffects/index.html" target="_blank"&gt;GlowingHeartDotAnimationEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GlowingHeartDotAnimationEffects"
+            width="460"
+            height="315"
+            src="src/GlowingHeartDotAnimationEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3228,7 +3234,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
@@ -3249,7 +3255,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;a href="src/GoogleSearchWorkingWebsite/index.html" target="_blank"&gt;GoogleSearchWorkingWebsite&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3257,10 +3263,10 @@
       </c>
       <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+        <v xml:space="preserve">GoogleSearchWorkingWebsite"
+            width="460"
+            height="315"
+            src="src/GoogleSearchWorkingWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3273,14 +3279,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="Heroes_ResponsiveWebsiteLandingPage"
-            width="460"
-            height="315"
-            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
+        &lt;a href="src/GoogleSearchWorkingWebsite/index.html" target="_blank"&gt;GoogleSearchWorkingWebsite&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GoogleSearchWorkingWebsite"
+            width="460"
+            height="315"
+            src="src/GoogleSearchWorkingWebsite/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3292,7 +3298,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
@@ -3313,7 +3319,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HTMLCSS_CV/index.html" target="_blank"&gt;HTMLCSS_CV&lt;/a&gt;
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3321,10 +3327,10 @@
       </c>
       <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">HTMLCSS_CV"
-            width="460"
-            height="315"
-            src="src/HTMLCSS_CV/index.html"
+        <v xml:space="preserve">GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3337,14 +3343,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/HTMLCSS_CV/index.html" target="_blank"&gt;HTMLCSS_CV&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="HTMLCSS_CV"
-            width="460"
-            height="315"
-            src="src/HTMLCSS_CV/index.html"
+        &lt;a href="src/GradientBorderCards/index.html" target="_blank"&gt;GradientBorderCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="GradientBorderCards"
+            width="460"
+            height="315"
+            src="src/GradientBorderCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3356,7 +3362,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -3377,7 +3383,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ImagePortfolioFilterUsingJavascript/index.html" target="_blank"&gt;ImagePortfolioFilterUsingJavascript&lt;/a&gt;
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3385,10 +3391,10 @@
       </c>
       <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ImagePortfolioFilterUsingJavascript"
-            width="460"
-            height="315"
-            src="src/ImagePortfolioFilterUsingJavascript/index.html"
+        <v xml:space="preserve">Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3401,14 +3407,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ImagePortfolioFilterUsingJavascript/index.html" target="_blank"&gt;ImagePortfolioFilterUsingJavascript&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ImagePortfolioFilterUsingJavascript"
-            width="460"
-            height="315"
-            src="src/ImagePortfolioFilterUsingJavascript/index.html"
+        &lt;a href="src/Heroes_ResponsiveWebsiteLandingPage/index.html" target="_blank"&gt;Heroes_ResponsiveWebsiteLandingPage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Heroes_ResponsiveWebsiteLandingPage"
+            width="460"
+            height="315"
+            src="src/Heroes_ResponsiveWebsiteLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3420,7 +3426,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
@@ -3441,7 +3447,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ImagePortfolioFilterUsingjQuery/index.html" target="_blank"&gt;ImagePortfolioFilterUsingjQuery&lt;/a&gt;
+        &lt;a href="src/HTMLCSS_CV/index.html" target="_blank"&gt;HTMLCSS_CV&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3449,10 +3455,10 @@
       </c>
       <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ImagePortfolioFilterUsingjQuery"
-            width="460"
-            height="315"
-            src="src/ImagePortfolioFilterUsingjQuery/index.html"
+        <v xml:space="preserve">HTMLCSS_CV"
+            width="460"
+            height="315"
+            src="src/HTMLCSS_CV/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3465,14 +3471,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ImagePortfolioFilterUsingjQuery/index.html" target="_blank"&gt;ImagePortfolioFilterUsingjQuery&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ImagePortfolioFilterUsingjQuery"
-            width="460"
-            height="315"
-            src="src/ImagePortfolioFilterUsingjQuery/index.html"
+        &lt;a href="src/HTMLCSS_CV/index.html" target="_blank"&gt;HTMLCSS_CV&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="HTMLCSS_CV"
+            width="460"
+            height="315"
+            src="src/HTMLCSS_CV/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3484,7 +3490,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
@@ -3505,7 +3511,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/InkSplash/index.html" target="_blank"&gt;InkSplash&lt;/a&gt;
+        &lt;a href="src/ImagePortfolioFilterUsingJavascript/index.html" target="_blank"&gt;ImagePortfolioFilterUsingJavascript&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3513,10 +3519,10 @@
       </c>
       <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">InkSplash"
-            width="460"
-            height="315"
-            src="src/InkSplash/index.html"
+        <v xml:space="preserve">ImagePortfolioFilterUsingJavascript"
+            width="460"
+            height="315"
+            src="src/ImagePortfolioFilterUsingJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3529,14 +3535,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/InkSplash/index.html" target="_blank"&gt;InkSplash&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="InkSplash"
-            width="460"
-            height="315"
-            src="src/InkSplash/index.html"
+        &lt;a href="src/ImagePortfolioFilterUsingJavascript/index.html" target="_blank"&gt;ImagePortfolioFilterUsingJavascript&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ImagePortfolioFilterUsingJavascript"
+            width="460"
+            height="315"
+            src="src/ImagePortfolioFilterUsingJavascript/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3548,7 +3554,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
@@ -3569,7 +3575,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;a href="src/ImagePortfolioFilterUsingjQuery/index.html" target="_blank"&gt;ImagePortfolioFilterUsingjQuery&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3577,10 +3583,10 @@
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
+        <v xml:space="preserve">ImagePortfolioFilterUsingjQuery"
+            width="460"
+            height="315"
+            src="src/ImagePortfolioFilterUsingjQuery/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3593,14 +3599,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JsAnimation2"
-            width="460"
-            height="315"
-            src="src/JsAnimation2/index.html"
+        &lt;a href="src/ImagePortfolioFilterUsingjQuery/index.html" target="_blank"&gt;ImagePortfolioFilterUsingjQuery&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ImagePortfolioFilterUsingjQuery"
+            width="460"
+            height="315"
+            src="src/ImagePortfolioFilterUsingjQuery/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3612,7 +3618,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
@@ -3633,7 +3639,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JungleParallax/index.html" target="_blank"&gt;JungleParallax&lt;/a&gt;
+        &lt;a href="src/InkSplash/index.html" target="_blank"&gt;InkSplash&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3641,10 +3647,10 @@
       </c>
       <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">JungleParallax"
-            width="460"
-            height="315"
-            src="src/JungleParallax/index.html"
+        <v xml:space="preserve">InkSplash"
+            width="460"
+            height="315"
+            src="src/InkSplash/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3657,14 +3663,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/JungleParallax/index.html" target="_blank"&gt;JungleParallax&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="JungleParallax"
-            width="460"
-            height="315"
-            src="src/JungleParallax/index.html"
+        &lt;a href="src/InkSplash/index.html" target="_blank"&gt;InkSplash&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="InkSplash"
+            width="460"
+            height="315"
+            src="src/InkSplash/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3676,7 +3682,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="4" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -3697,7 +3703,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LiquidButton/index.html" target="_blank"&gt;LiquidButton&lt;/a&gt;
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3705,10 +3711,10 @@
       </c>
       <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LiquidButton"
-            width="460"
-            height="315"
-            src="src/LiquidButton/index.html"
+        <v xml:space="preserve">JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3721,14 +3727,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LiquidButton/index.html" target="_blank"&gt;LiquidButton&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="LiquidButton"
-            width="460"
-            height="315"
-            src="src/LiquidButton/index.html"
+        &lt;a href="src/JsAnimation2/index.html" target="_blank"&gt;JsAnimation2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JsAnimation2"
+            width="460"
+            height="315"
+            src="src/JsAnimation2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3740,7 +3746,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
@@ -3761,7 +3767,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LoadingAnimationSquare01/index.html" target="_blank"&gt;LoadingAnimationSquare01&lt;/a&gt;
+        &lt;a href="src/JungleParallax/index.html" target="_blank"&gt;JungleParallax&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3769,10 +3775,10 @@
       </c>
       <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LoadingAnimationSquare01"
-            width="460"
-            height="315"
-            src="src/LoadingAnimationSquare01/index.html"
+        <v xml:space="preserve">JungleParallax"
+            width="460"
+            height="315"
+            src="src/JungleParallax/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3785,14 +3791,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LoadingAnimationSquare01/index.html" target="_blank"&gt;LoadingAnimationSquare01&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="LoadingAnimationSquare01"
-            width="460"
-            height="315"
-            src="src/LoadingAnimationSquare01/index.html"
+        &lt;a href="src/JungleParallax/index.html" target="_blank"&gt;JungleParallax&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="JungleParallax"
+            width="460"
+            height="315"
+            src="src/JungleParallax/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3804,7 +3810,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
@@ -3825,7 +3831,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LoadingAnimationSquare02/index.html" target="_blank"&gt;LoadingAnimationSquare02&lt;/a&gt;
+        &lt;a href="src/LiquidButton/index.html" target="_blank"&gt;LiquidButton&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3833,10 +3839,10 @@
       </c>
       <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LoadingAnimationSquare02"
-            width="460"
-            height="315"
-            src="src/LoadingAnimationSquare02/index.html"
+        <v xml:space="preserve">LiquidButton"
+            width="460"
+            height="315"
+            src="src/LiquidButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3849,14 +3855,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/LoadingAnimationSquare02/index.html" target="_blank"&gt;LoadingAnimationSquare02&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="LoadingAnimationSquare02"
-            width="460"
-            height="315"
-            src="src/LoadingAnimationSquare02/index.html"
+        &lt;a href="src/LiquidButton/index.html" target="_blank"&gt;LiquidButton&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="LiquidButton"
+            width="460"
+            height="315"
+            src="src/LiquidButton/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3868,7 +3874,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>6</v>
@@ -3889,7 +3895,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MagicLineFillHoverEffects/index.html" target="_blank"&gt;MagicLineFillHoverEffects&lt;/a&gt;
+        &lt;a href="src/LoadingAnimationSquare01/index.html" target="_blank"&gt;LoadingAnimationSquare01&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3897,10 +3903,10 @@
       </c>
       <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">MagicLineFillHoverEffects"
-            width="460"
-            height="315"
-            src="src/MagicLineFillHoverEffects/index.html"
+        <v xml:space="preserve">LoadingAnimationSquare01"
+            width="460"
+            height="315"
+            src="src/LoadingAnimationSquare01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3913,14 +3919,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/MagicLineFillHoverEffects/index.html" target="_blank"&gt;MagicLineFillHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="MagicLineFillHoverEffects"
-            width="460"
-            height="315"
-            src="src/MagicLineFillHoverEffects/index.html"
+        &lt;a href="src/LoadingAnimationSquare01/index.html" target="_blank"&gt;LoadingAnimationSquare01&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="LoadingAnimationSquare01"
+            width="460"
+            height="315"
+            src="src/LoadingAnimationSquare01/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3932,7 +3938,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>6</v>
@@ -3953,7 +3959,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationTooltip2HoverEffects/index.html" target="_blank"&gt;NavigationTooltip2HoverEffects&lt;/a&gt;
+        &lt;a href="src/LoadingAnimationSquare02/index.html" target="_blank"&gt;LoadingAnimationSquare02&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -3961,10 +3967,10 @@
       </c>
       <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NavigationTooltip2HoverEffects"
-            width="460"
-            height="315"
-            src="src/NavigationTooltip2HoverEffects/index.html"
+        <v xml:space="preserve">LoadingAnimationSquare02"
+            width="460"
+            height="315"
+            src="src/LoadingAnimationSquare02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3977,14 +3983,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NavigationTooltip2HoverEffects/index.html" target="_blank"&gt;NavigationTooltip2HoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NavigationTooltip2HoverEffects"
-            width="460"
-            height="315"
-            src="src/NavigationTooltip2HoverEffects/index.html"
+        &lt;a href="src/LoadingAnimationSquare02/index.html" target="_blank"&gt;LoadingAnimationSquare02&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="LoadingAnimationSquare02"
+            width="460"
+            height="315"
+            src="src/LoadingAnimationSquare02/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -3996,7 +4002,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>6</v>
@@ -4017,7 +4023,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NikeShoePage/index.html" target="_blank"&gt;NikeShoePage&lt;/a&gt;
+        &lt;a href="src/MagicLineFillHoverEffects/index.html" target="_blank"&gt;MagicLineFillHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4025,10 +4031,10 @@
       </c>
       <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">NikeShoePage"
-            width="460"
-            height="315"
-            src="src/NikeShoePage/index.html"
+        <v xml:space="preserve">MagicLineFillHoverEffects"
+            width="460"
+            height="315"
+            src="src/MagicLineFillHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4041,14 +4047,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/NikeShoePage/index.html" target="_blank"&gt;NikeShoePage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="NikeShoePage"
-            width="460"
-            height="315"
-            src="src/NikeShoePage/index.html"
+        &lt;a href="src/MagicLineFillHoverEffects/index.html" target="_blank"&gt;MagicLineFillHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="MagicLineFillHoverEffects"
+            width="460"
+            height="315"
+            src="src/MagicLineFillHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4060,7 +4066,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>6</v>
@@ -4081,7 +4087,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OxygenO2/index.html" target="_blank"&gt;OxygenO2&lt;/a&gt;
+        &lt;a href="src/NavigationTooltip2HoverEffects/index.html" target="_blank"&gt;NavigationTooltip2HoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4089,10 +4095,10 @@
       </c>
       <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">OxygenO2"
-            width="460"
-            height="315"
-            src="src/OxygenO2/index.html"
+        <v xml:space="preserve">NavigationTooltip2HoverEffects"
+            width="460"
+            height="315"
+            src="src/NavigationTooltip2HoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4105,14 +4111,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/OxygenO2/index.html" target="_blank"&gt;OxygenO2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="OxygenO2"
-            width="460"
-            height="315"
-            src="src/OxygenO2/index.html"
+        &lt;a href="src/NavigationTooltip2HoverEffects/index.html" target="_blank"&gt;NavigationTooltip2HoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NavigationTooltip2HoverEffects"
+            width="460"
+            height="315"
+            src="src/NavigationTooltip2HoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4124,7 +4130,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
@@ -4145,7 +4151,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ParallaxEffectMouseMove/index.html" target="_blank"&gt;ParallaxEffectMouseMove&lt;/a&gt;
+        &lt;a href="src/NikeShoePage/index.html" target="_blank"&gt;NikeShoePage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4153,10 +4159,10 @@
       </c>
       <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ParallaxEffectMouseMove"
-            width="460"
-            height="315"
-            src="src/ParallaxEffectMouseMove/index.html"
+        <v xml:space="preserve">NikeShoePage"
+            width="460"
+            height="315"
+            src="src/NikeShoePage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4169,14 +4175,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ParallaxEffectMouseMove/index.html" target="_blank"&gt;ParallaxEffectMouseMove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ParallaxEffectMouseMove"
-            width="460"
-            height="315"
-            src="src/ParallaxEffectMouseMove/index.html"
+        &lt;a href="src/NikeShoePage/index.html" target="_blank"&gt;NikeShoePage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="NikeShoePage"
+            width="460"
+            height="315"
+            src="src/NikeShoePage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4188,7 +4194,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
@@ -4209,7 +4215,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/parallaxEffectsJS/index.html" target="_blank"&gt;parallaxEffectsJS&lt;/a&gt;
+        &lt;a href="src/OxygenO2/index.html" target="_blank"&gt;OxygenO2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4217,10 +4223,10 @@
       </c>
       <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">parallaxEffectsJS"
-            width="460"
-            height="315"
-            src="src/parallaxEffectsJS/index.html"
+        <v xml:space="preserve">OxygenO2"
+            width="460"
+            height="315"
+            src="src/OxygenO2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4233,14 +4239,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/parallaxEffectsJS/index.html" target="_blank"&gt;parallaxEffectsJS&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="parallaxEffectsJS"
-            width="460"
-            height="315"
-            src="src/parallaxEffectsJS/index.html"
+        &lt;a href="src/OxygenO2/index.html" target="_blank"&gt;OxygenO2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="OxygenO2"
+            width="460"
+            height="315"
+            src="src/OxygenO2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4252,7 +4258,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
@@ -4273,7 +4279,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ParallaxMousemove/index.html" target="_blank"&gt;ParallaxMousemove&lt;/a&gt;
+        &lt;a href="src/ParallaxEffectMouseMove/index.html" target="_blank"&gt;ParallaxEffectMouseMove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4281,10 +4287,10 @@
       </c>
       <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ParallaxMousemove"
-            width="460"
-            height="315"
-            src="src/ParallaxMousemove/index.html"
+        <v xml:space="preserve">ParallaxEffectMouseMove"
+            width="460"
+            height="315"
+            src="src/ParallaxEffectMouseMove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4297,14 +4303,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ParallaxMousemove/index.html" target="_blank"&gt;ParallaxMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ParallaxMousemove"
-            width="460"
-            height="315"
-            src="src/ParallaxMousemove/index.html"
+        &lt;a href="src/ParallaxEffectMouseMove/index.html" target="_blank"&gt;ParallaxEffectMouseMove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ParallaxEffectMouseMove"
+            width="460"
+            height="315"
+            src="src/ParallaxEffectMouseMove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4316,7 +4322,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>6</v>
@@ -4337,7 +4343,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PixelButtonHoverEffects/index.html" target="_blank"&gt;PixelButtonHoverEffects&lt;/a&gt;
+        &lt;a href="src/parallaxEffectsJS/index.html" target="_blank"&gt;parallaxEffectsJS&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4345,10 +4351,10 @@
       </c>
       <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">PixelButtonHoverEffects"
-            width="460"
-            height="315"
-            src="src/PixelButtonHoverEffects/index.html"
+        <v xml:space="preserve">parallaxEffectsJS"
+            width="460"
+            height="315"
+            src="src/parallaxEffectsJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4361,14 +4367,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PixelButtonHoverEffects/index.html" target="_blank"&gt;PixelButtonHoverEffects&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PixelButtonHoverEffects"
-            width="460"
-            height="315"
-            src="src/PixelButtonHoverEffects/index.html"
+        &lt;a href="src/parallaxEffectsJS/index.html" target="_blank"&gt;parallaxEffectsJS&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="parallaxEffectsJS"
+            width="460"
+            height="315"
+            src="src/parallaxEffectsJS/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4380,7 +4386,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
@@ -4401,7 +4407,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioLandingPage/index.html" target="_blank"&gt;PortfolioLandingPage&lt;/a&gt;
+        &lt;a href="src/ParallaxMousemove/index.html" target="_blank"&gt;ParallaxMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4409,10 +4415,10 @@
       </c>
       <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">PortfolioLandingPage"
-            width="460"
-            height="315"
-            src="src/PortfolioLandingPage/index.html"
+        <v xml:space="preserve">ParallaxMousemove"
+            width="460"
+            height="315"
+            src="src/ParallaxMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4425,14 +4431,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PortfolioLandingPage/index.html" target="_blank"&gt;PortfolioLandingPage&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PortfolioLandingPage"
-            width="460"
-            height="315"
-            src="src/PortfolioLandingPage/index.html"
+        &lt;a href="src/ParallaxMousemove/index.html" target="_blank"&gt;ParallaxMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ParallaxMousemove"
+            width="460"
+            height="315"
+            src="src/ParallaxMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4444,7 +4450,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
@@ -4465,7 +4471,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PowerOfLight2/index.html" target="_blank"&gt;PowerOfLight2&lt;/a&gt;
+        &lt;a href="src/PixelButtonHoverEffects/index.html" target="_blank"&gt;PixelButtonHoverEffects&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4473,10 +4479,10 @@
       </c>
       <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">PowerOfLight2"
-            width="460"
-            height="315"
-            src="src/PowerOfLight2/index.html"
+        <v xml:space="preserve">PixelButtonHoverEffects"
+            width="460"
+            height="315"
+            src="src/PixelButtonHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4489,14 +4495,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/PowerOfLight2/index.html" target="_blank"&gt;PowerOfLight2&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="PowerOfLight2"
-            width="460"
-            height="315"
-            src="src/PowerOfLight2/index.html"
+        &lt;a href="src/PixelButtonHoverEffects/index.html" target="_blank"&gt;PixelButtonHoverEffects&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PixelButtonHoverEffects"
+            width="460"
+            height="315"
+            src="src/PixelButtonHoverEffects/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4508,7 +4514,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
@@ -4529,7 +4535,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ProductCard002/index.html" target="_blank"&gt;ProductCard002&lt;/a&gt;
+        &lt;a href="src/PortfolioLandingPage/index.html" target="_blank"&gt;PortfolioLandingPage&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4537,10 +4543,10 @@
       </c>
       <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ProductCard002"
-            width="460"
-            height="315"
-            src="src/ProductCard002/index.html"
+        <v xml:space="preserve">PortfolioLandingPage"
+            width="460"
+            height="315"
+            src="src/PortfolioLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4553,14 +4559,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ProductCard002/index.html" target="_blank"&gt;ProductCard002&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ProductCard002"
-            width="460"
-            height="315"
-            src="src/ProductCard002/index.html"
+        &lt;a href="src/PortfolioLandingPage/index.html" target="_blank"&gt;PortfolioLandingPage&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PortfolioLandingPage"
+            width="460"
+            height="315"
+            src="src/PortfolioLandingPage/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4572,7 +4578,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -4593,7 +4599,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ProductCARDUIDesign/index.html" target="_blank"&gt;ProductCARDUIDesign&lt;/a&gt;
+        &lt;a href="src/PowerOfLight2/index.html" target="_blank"&gt;PowerOfLight2&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4601,10 +4607,10 @@
       </c>
       <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ProductCARDUIDesign"
-            width="460"
-            height="315"
-            src="src/ProductCARDUIDesign/index.html"
+        <v xml:space="preserve">PowerOfLight2"
+            width="460"
+            height="315"
+            src="src/PowerOfLight2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4617,14 +4623,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ProductCARDUIDesign/index.html" target="_blank"&gt;ProductCARDUIDesign&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ProductCARDUIDesign"
-            width="460"
-            height="315"
-            src="src/ProductCARDUIDesign/index.html"
+        &lt;a href="src/PowerOfLight2/index.html" target="_blank"&gt;PowerOfLight2&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="PowerOfLight2"
+            width="460"
+            height="315"
+            src="src/PowerOfLight2/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4636,7 +4642,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>6</v>
@@ -4657,7 +4663,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RealisticCheckbox/index.html" target="_blank"&gt;RealisticCheckbox&lt;/a&gt;
+        &lt;a href="src/ProductCard002/index.html" target="_blank"&gt;ProductCard002&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4665,10 +4671,10 @@
       </c>
       <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">RealisticCheckbox"
-            width="460"
-            height="315"
-            src="src/RealisticCheckbox/index.html"
+        <v xml:space="preserve">ProductCard002"
+            width="460"
+            height="315"
+            src="src/ProductCard002/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4681,14 +4687,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RealisticCheckbox/index.html" target="_blank"&gt;RealisticCheckbox&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RealisticCheckbox"
-            width="460"
-            height="315"
-            src="src/RealisticCheckbox/index.html"
+        &lt;a href="src/ProductCard002/index.html" target="_blank"&gt;ProductCard002&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ProductCard002"
+            width="460"
+            height="315"
+            src="src/ProductCard002/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4700,7 +4706,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
@@ -4721,7 +4727,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveContactUsForm/index.html" target="_blank"&gt;ResponsiveContactUsForm&lt;/a&gt;
+        &lt;a href="src/ProductCARDUIDesign/index.html" target="_blank"&gt;ProductCARDUIDesign&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4729,10 +4735,10 @@
       </c>
       <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveContactUsForm"
-            width="460"
-            height="315"
-            src="src/ResponsiveContactUsForm/index.html"
+        <v xml:space="preserve">ProductCARDUIDesign"
+            width="460"
+            height="315"
+            src="src/ProductCARDUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4745,14 +4751,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveContactUsForm/index.html" target="_blank"&gt;ResponsiveContactUsForm&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveContactUsForm"
-            width="460"
-            height="315"
-            src="src/ResponsiveContactUsForm/index.html"
+        &lt;a href="src/ProductCARDUIDesign/index.html" target="_blank"&gt;ProductCARDUIDesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ProductCARDUIDesign"
+            width="460"
+            height="315"
+            src="src/ProductCARDUIDesign/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4764,7 +4770,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
@@ -4785,7 +4791,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveStackedCards/index.html" target="_blank"&gt;ResponsiveStackedCards&lt;/a&gt;
+        &lt;a href="src/RealisticCheckbox/index.html" target="_blank"&gt;RealisticCheckbox&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4793,10 +4799,10 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ResponsiveStackedCards"
-            width="460"
-            height="315"
-            src="src/ResponsiveStackedCards/index.html"
+        <v xml:space="preserve">RealisticCheckbox"
+            width="460"
+            height="315"
+            src="src/RealisticCheckbox/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4809,14 +4815,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ResponsiveStackedCards/index.html" target="_blank"&gt;ResponsiveStackedCards&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ResponsiveStackedCards"
-            width="460"
-            height="315"
-            src="src/ResponsiveStackedCards/index.html"
+        &lt;a href="src/RealisticCheckbox/index.html" target="_blank"&gt;RealisticCheckbox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RealisticCheckbox"
+            width="460"
+            height="315"
+            src="src/RealisticCheckbox/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4828,7 +4834,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>6</v>
@@ -4849,7 +4855,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RingOfFire/index.html" target="_blank"&gt;RingOfFire&lt;/a&gt;
+        &lt;a href="src/ResponsiveContactUsForm/index.html" target="_blank"&gt;ResponsiveContactUsForm&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4857,10 +4863,10 @@
       </c>
       <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">RingOfFire"
-            width="460"
-            height="315"
-            src="src/RingOfFire/index.html"
+        <v xml:space="preserve">ResponsiveContactUsForm"
+            width="460"
+            height="315"
+            src="src/ResponsiveContactUsForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4873,14 +4879,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/RingOfFire/index.html" target="_blank"&gt;RingOfFire&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="RingOfFire"
-            width="460"
-            height="315"
-            src="src/RingOfFire/index.html"
+        &lt;a href="src/ResponsiveContactUsForm/index.html" target="_blank"&gt;ResponsiveContactUsForm&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveContactUsForm"
+            width="460"
+            height="315"
+            src="src/ResponsiveContactUsForm/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4892,7 +4898,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
@@ -4913,7 +4919,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ScrollMeterMousemove/index.html" target="_blank"&gt;ScrollMeterMousemove&lt;/a&gt;
+        &lt;a href="src/ResponsiveStackedCards/index.html" target="_blank"&gt;ResponsiveStackedCards&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4921,10 +4927,10 @@
       </c>
       <c r="H67" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ScrollMeterMousemove"
-            width="460"
-            height="315"
-            src="src/ScrollMeterMousemove/index.html"
+        <v xml:space="preserve">ResponsiveStackedCards"
+            width="460"
+            height="315"
+            src="src/ResponsiveStackedCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4937,14 +4943,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ScrollMeterMousemove/index.html" target="_blank"&gt;ScrollMeterMousemove&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ScrollMeterMousemove"
-            width="460"
-            height="315"
-            src="src/ScrollMeterMousemove/index.html"
+        &lt;a href="src/ResponsiveStackedCards/index.html" target="_blank"&gt;ResponsiveStackedCards&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ResponsiveStackedCards"
+            width="460"
+            height="315"
+            src="src/ResponsiveStackedCards/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -4956,7 +4962,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
@@ -4977,7 +4983,7 @@
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ScrollTriggerParallax/index.html" target="_blank"&gt;ScrollTriggerParallax&lt;/a&gt;
+        &lt;a href="src/RingOfFire/index.html" target="_blank"&gt;RingOfFire&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
@@ -4985,10 +4991,10 @@
       </c>
       <c r="H68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">ScrollTriggerParallax"
-            width="460"
-            height="315"
-            src="src/ScrollTriggerParallax/index.html"
+        <v xml:space="preserve">RingOfFire"
+            width="460"
+            height="315"
+            src="src/RingOfFire/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5001,14 +5007,14 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
-        &lt;a href="src/ScrollTriggerParallax/index.html" target="_blank"&gt;ScrollTriggerParallax&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="ScrollTriggerParallax"
-            width="460"
-            height="315"
-            src="src/ScrollTriggerParallax/index.html"
+        &lt;a href="src/RingOfFire/index.html" target="_blank"&gt;RingOfFire&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="RingOfFire"
+            width="460"
+            height="315"
+            src="src/RingOfFire/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5020,7 +5026,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
@@ -5038,21 +5044,21 @@
         <v>13</v>
       </c>
       <c r="G69" s="3" t="str">
-        <f t="shared" ref="G69:G79" si="3">_xlfn.CONCAT($B69,$A69,$C69,$A69,$D69)</f>
-        <v>&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SearchBox/index.html" target="_blank"&gt;SearchBox&lt;/a&gt;
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ScrollMeterMousemove/index.html" target="_blank"&gt;ScrollMeterMousemove&lt;/a&gt;
         &lt;hr class="rounded" /&gt;
         &lt;div&gt;
           &lt;iframe
             title="</v>
       </c>
       <c r="H69" s="3" t="str">
-        <f t="shared" ref="H69:H79" si="4">_xlfn.CONCAT($A69,$E69,$A69,$F69)</f>
-        <v xml:space="preserve">SearchBox"
-            width="460"
-            height="315"
-            src="src/SearchBox/index.html"
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ScrollMeterMousemove"
+            width="460"
+            height="315"
+            src="src/ScrollMeterMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5062,17 +5068,17 @@
       </v>
       </c>
       <c r="I69" s="7" t="str">
-        <f t="shared" ref="I69:I79" si="5">_xlfn.CONCAT($G69,$H69)</f>
-        <v xml:space="preserve">&lt;section&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;a href="src/SearchBox/index.html" target="_blank"&gt;SearchBox&lt;/a&gt;
-        &lt;hr class="rounded" /&gt;
-        &lt;div&gt;
-          &lt;iframe
-            title="SearchBox"
-            width="460"
-            height="315"
-            src="src/SearchBox/index.html"
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ScrollMeterMousemove/index.html" target="_blank"&gt;ScrollMeterMousemove&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ScrollMeterMousemove"
+            width="460"
+            height="315"
+            src="src/ScrollMeterMousemove/index.html"
             frameborder="0"
             allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
             allowfullscreen
@@ -5084,24 +5090,152 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ScrollTriggerParallax/index.html" target="_blank"&gt;ScrollTriggerParallax&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">ScrollTriggerParallax"
+            width="460"
+            height="315"
+            src="src/ScrollTriggerParallax/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I70" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/ScrollTriggerParallax/index.html" target="_blank"&gt;ScrollTriggerParallax&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="ScrollTriggerParallax"
+            width="460"
+            height="315"
+            src="src/ScrollTriggerParallax/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" ref="G71:G81" si="3">_xlfn.CONCAT($B71,$A71,$C71,$A71,$D71)</f>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/SearchBox/index.html" target="_blank"&gt;SearchBox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H71" s="3" t="str">
+        <f t="shared" ref="H71:H81" si="4">_xlfn.CONCAT($A71,$E71,$A71,$F71)</f>
+        <v xml:space="preserve">SearchBox"
+            width="460"
+            height="315"
+            src="src/SearchBox/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I71" s="7" t="str">
+        <f t="shared" ref="I71:I81" si="5">_xlfn.CONCAT($G71,$H71)</f>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/SearchBox/index.html" target="_blank"&gt;SearchBox&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="SearchBox"
+            width="460"
+            height="315"
+            src="src/SearchBox/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="3" t="str">
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5111,7 +5245,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H70" s="3" t="str">
+      <c r="H72" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">ShootingStars"
             width="460"
@@ -5125,7 +5259,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I72" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5146,26 +5280,26 @@
       </v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="3" t="str">
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5175,7 +5309,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H71" s="3" t="str">
+      <c r="H73" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SidebarNavigation"
             width="460"
@@ -5189,7 +5323,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I73" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5210,26 +5344,26 @@
       </v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="4" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="3" t="str">
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5239,7 +5373,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H72" s="3" t="str">
+      <c r="H74" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SlidingLoginForm"
             width="460"
@@ -5253,7 +5387,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I74" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5274,26 +5408,26 @@
       </v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A73" s="4" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="3" t="str">
+      <c r="B75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5303,7 +5437,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H73" s="3" t="str">
+      <c r="H75" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SocialMediaIconHoverEffect3D"
             width="460"
@@ -5317,7 +5451,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I73" s="7" t="str">
+      <c r="I75" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5338,26 +5472,26 @@
       </v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="4" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="3" t="str">
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5367,7 +5501,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H74" s="3" t="str">
+      <c r="H76" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">StarRatingSkillsRatingBar"
             width="460"
@@ -5381,7 +5515,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I74" s="7" t="str">
+      <c r="I76" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5402,26 +5536,26 @@
       </v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A75" s="4" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="3" t="str">
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5431,7 +5565,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H75" s="3" t="str">
+      <c r="H77" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Summer"
             width="460"
@@ -5445,7 +5579,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I75" s="7" t="str">
+      <c r="I77" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5466,26 +5600,26 @@
       </v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="4" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="3" t="str">
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5495,7 +5629,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H76" s="3" t="str">
+      <c r="H78" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">TextAnimation3D"
             width="460"
@@ -5509,7 +5643,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I76" s="7" t="str">
+      <c r="I78" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5530,26 +5664,26 @@
       </v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="4" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="3" t="str">
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5559,7 +5693,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H77" s="3" t="str">
+      <c r="H79" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">TypingText_Border_Animatiion"
             width="460"
@@ -5573,7 +5707,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I77" s="7" t="str">
+      <c r="I79" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5594,26 +5728,26 @@
       </v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="4" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="3" t="str">
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5623,7 +5757,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H78" s="3" t="str">
+      <c r="H80" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">UserCard_Light_Dark"
             width="460"
@@ -5637,7 +5771,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I78" s="7" t="str">
+      <c r="I80" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5658,26 +5792,26 @@
       </v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="3" t="str">
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -5687,7 +5821,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H79" s="3" t="str">
+      <c r="H81" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">WaveBannerAnimationParallax"
             width="460"
@@ -5701,7 +5835,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I79" s="7" t="str">
+      <c r="I81" s="7" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
